--- a/친선대회.xlsx
+++ b/친선대회.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Python\django\SA_BSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533052FB-FFAB-4759-9B8A-277B07E10AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE24B833-1141-456C-B155-ED185603581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1485" windowWidth="21015" windowHeight="15435" activeTab="1" xr2:uid="{8FBBDD44-3189-41D9-B955-924559854184}"/>
+    <workbookView xWindow="19560" yWindow="3165" windowWidth="21015" windowHeight="15435" activeTab="1" xr2:uid="{8FBBDD44-3189-41D9-B955-924559854184}"/>
   </bookViews>
   <sheets>
     <sheet name="중고기록지" sheetId="2" r:id="rId1"/>
@@ -439,14 +439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>용인대학교</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명지대학교</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>박지훈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -472,6 +464,14 @@
   </si>
   <si>
     <t>성인부대회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>용인고등학교</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명지고등학교</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1609,6 +1609,183 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1618,21 +1795,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1651,169 +1813,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,16 +1855,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1852,12 +1888,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1866,36 +1896,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2233,73 +2233,73 @@
       <c r="A2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="5"/>
-      <c r="K2" s="142" t="s">
+      <c r="K2" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="83"/>
     </row>
     <row r="3" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="145"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:29" ht="13.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="F4" s="146" t="s">
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="F4" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="146"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="8">
         <v>1</v>
       </c>
@@ -2307,14 +2307,14 @@
       <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="147" t="s">
+      <c r="K4" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="149"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="91"/>
       <c r="Q4" s="49" t="s">
         <v>44</v>
       </c>
@@ -2341,12 +2341,12 @@
       <c r="A5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="89" t="s">
+      <c r="B5" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2362,14 +2362,14 @@
       <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="123" t="s">
+      <c r="K5" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="124"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="125"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="98"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
       <c r="Q5" s="56">
         <v>16</v>
       </c>
@@ -2396,24 +2396,24 @@
       <c r="A6" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="126">
+      <c r="B6" s="100">
         <v>44690.375</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="2"/>
-      <c r="K6" s="127" t="s">
+      <c r="K6" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="129"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="103"/>
       <c r="Q6" s="53">
         <v>17</v>
       </c>
@@ -2517,64 +2517,64 @@
       </c>
     </row>
     <row r="8" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="136" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139" t="s">
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="108" t="s">
+      <c r="K8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="110" t="s">
+      <c r="M8" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="110" t="s">
+      <c r="O8" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="110" t="s">
+      <c r="P8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="110" t="s">
+      <c r="Q8" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="R8" s="121" t="s">
+      <c r="R8" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="S8" s="114" t="s">
+      <c r="S8" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="105"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="96"/>
     </row>
     <row r="9" spans="1:29" ht="13.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="50" t="s">
         <v>44</v>
       </c>
@@ -2593,15 +2593,15 @@
       <c r="I9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="122"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="93"/>
       <c r="S9" s="38" t="s">
         <v>44</v>
       </c>
@@ -3060,11 +3060,11 @@
       <c r="AC16" s="25"/>
     </row>
     <row r="17" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="15">
         <v>16</v>
       </c>
@@ -3135,12 +3135,12 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
@@ -3177,14 +3177,14 @@
       <c r="AC18" s="9"/>
     </row>
     <row r="19" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
       <c r="G19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3194,29 +3194,29 @@
       <c r="I19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="120" t="s">
+      <c r="J19" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="120"/>
-      <c r="L19" s="85" t="s">
+      <c r="K19" s="125"/>
+      <c r="L19" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="86"/>
-      <c r="N19" s="87" t="s">
+      <c r="M19" s="127"/>
+      <c r="N19" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="86"/>
+      <c r="O19" s="127"/>
       <c r="P19" s="3"/>
-      <c r="Q19" s="85" t="s">
+      <c r="Q19" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="96"/>
-      <c r="S19" s="85" t="s">
+      <c r="R19" s="138"/>
+      <c r="S19" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="T19" s="86"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="86"/>
+      <c r="T19" s="127"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="127"/>
       <c r="W19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3246,64 +3246,64 @@
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="103" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106" t="s">
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="K21" s="108" t="s">
+      <c r="K21" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="L21" s="108" t="s">
+      <c r="L21" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="110" t="s">
+      <c r="M21" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="110" t="s">
+      <c r="N21" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="O21" s="110" t="s">
+      <c r="O21" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="110" t="s">
+      <c r="P21" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="Q21" s="110" t="s">
+      <c r="Q21" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="R21" s="112" t="s">
+      <c r="R21" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="S21" s="114" t="s">
+      <c r="S21" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="105"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="96"/>
     </row>
     <row r="22" spans="1:29" ht="13.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="38" t="s">
         <v>44</v>
       </c>
@@ -3322,15 +3322,15 @@
       <c r="I22" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="113"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="140"/>
       <c r="S22" s="41" t="s">
         <v>44</v>
       </c>
@@ -4000,11 +4000,11 @@
       <c r="AC34" s="17"/>
     </row>
     <row r="35" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
       <c r="D35" s="12">
         <v>17</v>
       </c>
@@ -4073,12 +4073,12 @@
       <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="89"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
@@ -4115,12 +4115,12 @@
       <c r="AC36" s="9"/>
     </row>
     <row r="37" spans="1:29" ht="13.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="90" t="s">
+      <c r="A37" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4136,25 +4136,25 @@
       <c r="I37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="92" t="s">
+      <c r="J37" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="K37" s="93"/>
-      <c r="L37" s="94" t="s">
+      <c r="K37" s="147"/>
+      <c r="L37" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="95"/>
-      <c r="N37" s="87" t="s">
+      <c r="M37" s="149"/>
+      <c r="N37" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="86"/>
+      <c r="O37" s="127"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="86"/>
+      <c r="Q37" s="126"/>
+      <c r="R37" s="138"/>
+      <c r="S37" s="126"/>
+      <c r="T37" s="127"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="127"/>
       <c r="W37" s="3" t="s">
         <v>3</v>
       </c>
@@ -4253,12 +4253,36 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="K2:W3"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="K4:P4"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="A21:C22"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="S21:AC21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:AC8"/>
     <mergeCell ref="B5:E5"/>
@@ -4275,36 +4299,12 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="A21:C22"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="S21:AC21"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="K2:W3"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="K4:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4318,7 +4318,7 @@
   <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4337,84 +4337,84 @@
       <c r="A2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
+      <c r="B2" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
-      <c r="M2" s="173" t="s">
+      <c r="M2" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="N2" s="173"/>
-      <c r="O2" s="173"/>
-      <c r="P2" s="173"/>
-      <c r="Q2" s="173"/>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="174"/>
-      <c r="M3" s="173"/>
-      <c r="N3" s="173"/>
-      <c r="O3" s="173"/>
-      <c r="P3" s="173"/>
-      <c r="Q3" s="173"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="173"/>
-      <c r="U3" s="173"/>
-      <c r="V3" s="173"/>
-      <c r="W3" s="173"/>
-      <c r="X3" s="173"/>
-      <c r="Y3" s="173"/>
-      <c r="Z3" s="173"/>
+      <c r="B3" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="152"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="G4" s="146" t="s">
+      <c r="B4" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="G4" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="146"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="8">
         <v>1</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="175" t="s">
+      <c r="M4" s="153" t="s">
         <v>78</v>
       </c>
       <c r="N4" s="150"/>
@@ -4422,7 +4422,7 @@
       <c r="P4" s="150"/>
       <c r="Q4" s="150"/>
       <c r="R4" s="150"/>
-      <c r="S4" s="106"/>
+      <c r="S4" s="136"/>
       <c r="T4" s="44" t="s">
         <v>44</v>
       </c>
@@ -4449,12 +4449,12 @@
       <c r="A5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4479,14 +4479,14 @@
       <c r="M5" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="N5" s="176" t="s">
-        <v>108</v>
-      </c>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
-      <c r="S5" s="125"/>
+      <c r="N5" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="99"/>
       <c r="T5" s="56">
         <v>16</v>
       </c>
@@ -4513,13 +4513,13 @@
       <c r="A6" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="126">
+      <c r="B6" s="100">
         <v>45009.375</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -4533,14 +4533,14 @@
       <c r="M6" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="129"/>
+      <c r="N6" s="155" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="103"/>
       <c r="T6" s="53">
         <v>17</v>
       </c>
@@ -4623,73 +4623,73 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="110" t="s">
+      <c r="A8" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="106" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="168" t="s">
+      <c r="K8" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="169"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="168" t="s">
+      <c r="L8" s="157"/>
+      <c r="M8" s="158"/>
+      <c r="N8" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="169"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="171" t="s">
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="112" t="s">
+      <c r="R8" s="139" t="s">
         <v>51</v>
       </c>
       <c r="S8" s="150"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="112" t="s">
+      <c r="T8" s="136"/>
+      <c r="U8" s="139" t="s">
         <v>102</v>
       </c>
       <c r="V8" s="150"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="151" t="s">
+      <c r="W8" s="136"/>
+      <c r="X8" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="Y8" s="153" t="s">
+      <c r="Y8" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="Z8" s="153" t="s">
+      <c r="Z8" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="AA8" s="155" t="s">
+      <c r="AA8" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="AB8" s="153" t="s">
+      <c r="AB8" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="155"/>
-      <c r="AE8" s="151" t="s">
+      <c r="AC8" s="161"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="AF8" s="163" t="s">
+      <c r="AF8" s="164" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="73" t="s">
         <v>44</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="I9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="107"/>
+      <c r="J9" s="137"/>
       <c r="K9" s="77" t="s">
         <v>98</v>
       </c>
@@ -4727,7 +4727,7 @@
       <c r="P9" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="172"/>
+      <c r="Q9" s="168"/>
       <c r="R9" s="77" t="s">
         <v>98</v>
       </c>
@@ -4746,10 +4746,10 @@
       <c r="W9" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="154"/>
-      <c r="Z9" s="154"/>
-      <c r="AA9" s="156"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="160"/>
       <c r="AB9" s="74" t="s">
         <v>38</v>
       </c>
@@ -4759,12 +4759,12 @@
       <c r="AD9" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="164"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="165"/>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="32">
@@ -4777,7 +4777,7 @@
       <c r="H10" s="58"/>
       <c r="I10" s="57"/>
       <c r="J10" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K10" s="59">
         <v>10</v>
@@ -4845,11 +4845,11 @@
       <c r="AF10" s="72"/>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="66">
         <f>SUM(D10:D10)</f>
         <v>0</v>
@@ -4966,73 +4966,73 @@
       <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="110" t="s">
+      <c r="A13" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110" t="s">
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="168" t="s">
+      <c r="K13" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="169"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="168" t="s">
+      <c r="L13" s="157"/>
+      <c r="M13" s="158"/>
+      <c r="N13" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="O13" s="169"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="171" t="s">
+      <c r="O13" s="157"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="R13" s="112" t="s">
+      <c r="R13" s="139" t="s">
         <v>51</v>
       </c>
       <c r="S13" s="150"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="112" t="s">
+      <c r="T13" s="136"/>
+      <c r="U13" s="139" t="s">
         <v>102</v>
       </c>
       <c r="V13" s="150"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="151" t="s">
+      <c r="W13" s="136"/>
+      <c r="X13" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="Y13" s="153" t="s">
+      <c r="Y13" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="Z13" s="153" t="s">
+      <c r="Z13" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="AA13" s="155" t="s">
+      <c r="AA13" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="AB13" s="151" t="s">
+      <c r="AB13" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="AC13" s="153"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="153" t="s">
+      <c r="AC13" s="161"/>
+      <c r="AD13" s="159"/>
+      <c r="AE13" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="AF13" s="163" t="s">
+      <c r="AF13" s="164" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="132"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="42" t="s">
         <v>44</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="I14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="111"/>
+      <c r="J14" s="118"/>
       <c r="K14" s="77" t="s">
         <v>98</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="P14" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" s="172"/>
+      <c r="Q14" s="168"/>
       <c r="R14" s="77" t="s">
         <v>98</v>
       </c>
@@ -5089,10 +5089,10 @@
       <c r="W14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="154"/>
-      <c r="Z14" s="154"/>
-      <c r="AA14" s="156"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="160"/>
       <c r="AB14" s="42" t="s">
         <v>38</v>
       </c>
@@ -5102,12 +5102,12 @@
       <c r="AD14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AE14" s="154"/>
-      <c r="AF14" s="164"/>
+      <c r="AE14" s="166"/>
+      <c r="AF14" s="165"/>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="32">
@@ -5124,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K15" s="59">
         <v>1</v>
@@ -5193,11 +5193,11 @@
       <c r="AF15" s="72"/>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="68">
         <f>SUM(D15:D15)</f>
         <v>0</v>
@@ -5311,116 +5311,148 @@
       <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:32" s="64" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="165" t="s">
+      <c r="A18" s="175" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="166"/>
-      <c r="M18" s="166"/>
-      <c r="N18" s="166"/>
-      <c r="O18" s="166"/>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="167"/>
-      <c r="X18" s="165" t="s">
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="176"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="177"/>
+      <c r="X18" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="166"/>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="166"/>
-      <c r="AF18" s="167"/>
+      <c r="Y18" s="176"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
+      <c r="AD18" s="176"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="177"/>
     </row>
     <row r="19" spans="1:32" s="64" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="169" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="159"/>
-      <c r="X19" s="157" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
+      <c r="S19" s="170"/>
+      <c r="T19" s="170"/>
+      <c r="U19" s="170"/>
+      <c r="V19" s="171"/>
+      <c r="X19" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="159"/>
+      <c r="Y19" s="170"/>
+      <c r="Z19" s="170"/>
+      <c r="AA19" s="170"/>
+      <c r="AB19" s="170"/>
+      <c r="AC19" s="170"/>
+      <c r="AD19" s="170"/>
+      <c r="AE19" s="170"/>
+      <c r="AF19" s="171"/>
     </row>
     <row r="20" spans="1:32" s="64" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="172" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="162"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="162"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="174"/>
+      <c r="X20" s="172"/>
+      <c r="Y20" s="173"/>
+      <c r="Z20" s="173"/>
+      <c r="AA20" s="173"/>
+      <c r="AB20" s="173"/>
+      <c r="AC20" s="173"/>
+      <c r="AD20" s="173"/>
+      <c r="AE20" s="173"/>
+      <c r="AF20" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:X14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="Z13:Z14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="X19:AF19"/>
+    <mergeCell ref="A20:V20"/>
+    <mergeCell ref="X20:AF20"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="AF13:AF14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="X18:AF18"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="R13:T13"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="M2:Z3"/>
@@ -5437,38 +5469,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="N8:P8"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="X19:AF19"/>
-    <mergeCell ref="A20:V20"/>
-    <mergeCell ref="X20:AF20"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="AF13:AF14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="X18:AF18"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:X14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="Z13:Z14"/>
-    <mergeCell ref="AA13:AA14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
